--- a/src/data/M_OPEX.xlsx
+++ b/src/data/M_OPEX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Desktop\OPEX\opex-fs\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1CF1C-8A5C-49B7-AEAD-D95BC8173A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DAA739-C09D-431C-A187-D7EDC64D3AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14370" yWindow="4440" windowWidth="19635" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="3180" windowWidth="26595" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M_OPEX" sheetId="1" r:id="rId1"/>
@@ -370,13 +370,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00000000000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000000000000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000000000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00000000000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000000000000000"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000000000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000000000000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -410,14 +410,14 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,16 +759,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="20" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -877,7 +879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -918,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -959,7 +961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -967,7 +969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1026,7 +1028,7 @@
         <v>-650.85000000055879</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>5105.1499999999942</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>-3376.84</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1196,7 @@
         <v>6589.6300000000047</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>1892.3600000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>-27166.770000000019</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>-27166.770000000019</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>-11797.909999999916</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>-37234.020000000019</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1536,7 +1538,7 @@
         <v>17973.76999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1595,7 +1597,7 @@
         <v>16625.390000000014</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>-9163.0500000000175</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>14005.689999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1769,7 +1771,7 @@
         <v>13889.050000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>116.63999999999942</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>63330.969999999972</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>-14297.550000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>-20278.270000000019</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>-5722.9199999999983</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2057,7 +2059,7 @@
         <v>18716.490000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>82454.140000000014</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2210,7 +2212,7 @@
         <v>-9234.0599999999977</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2260,7 +2262,7 @@
         <v>11693.139999999992</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>-27110.610000000044</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -2375,7 +2377,7 @@
         <v>-74.289999999999964</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>5601.2799999999988</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2478,7 +2480,7 @@
         <v>3497.88</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>-36135.479999999981</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>-662.52999999999884</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2616,7 +2618,7 @@
         <v>-4152.7799999999988</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>3490.25</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2807,7 +2809,7 @@
         <v>-16354.839999999967</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>-706.25</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>2451.37</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>-780.29999999999973</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -2998,7 +3000,7 @@
         <v>-8074.4000000000015</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>-1188.5300000000007</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>-78.200000000000045</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>4170.2399999999907</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3210,7 +3212,7 @@
         <v>-12148.770000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -3257,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>11476.999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>11477</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -3347,7 +3349,7 @@
         <v>11477</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>83</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -3479,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -3523,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>18716.490000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>18716.490000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -3583,7 +3585,7 @@
         <v>18716.490000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>85</v>
       </c>
@@ -3674,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -3762,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>86</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>-73430.040000000037</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -3868,7 +3870,7 @@
         <v>-1050.6900000000023</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -3909,7 +3911,7 @@
         <v>-3376.84</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -3950,7 +3952,7 @@
         <v>-520.38999999999942</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -3997,7 +3999,7 @@
         <v>2846.54</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>86</v>
       </c>
@@ -4038,7 +4040,7 @@
         <v>-93.410000000003492</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>-93.410000000003492</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -4123,7 +4125,7 @@
         <v>-2420.3499999999767</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>199.36999999999534</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>3177.9799999999814</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -4249,7 +4251,7 @@
         <v>-2378.7999999999884</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>-3418.9000000000233</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>266.50999999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>86</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>266.50999999999993</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -4464,7 +4466,7 @@
         <v>-28940.459999999963</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>-14297.550000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -4567,7 +4569,7 @@
         <v>-22291.459999999963</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>86</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>-5722.9199999999983</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>22605.53</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -4708,7 +4710,7 @@
         <v>-9234.0599999999977</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -4808,7 +4810,7 @@
         <v>-30536.320000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -4855,7 +4857,7 @@
         <v>2101.2799999999988</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -4902,7 +4904,7 @@
         <v>3497.88</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>-36135.479999999981</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -4990,7 +4992,7 @@
         <v>-662.53000000000247</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -5031,7 +5033,7 @@
         <v>-4152.7799999999988</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>3490.2499999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -5116,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -5219,7 +5221,7 @@
         <v>-9992.7900000000373</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -5260,7 +5262,7 @@
         <v>-1995.38</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>86</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>2451.37</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>86</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>-780.29999999999973</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>86</v>
       </c>
@@ -5386,7 +5388,7 @@
         <v>-8074.4000000000015</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>86</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>-1188.5299999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>86</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>-208.36</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>86</v>
       </c>
@@ -5530,7 +5532,7 @@
         <v>11951.580000000016</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>86</v>
       </c>
@@ -5574,7 +5576,7 @@
         <v>-12148.770000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>12885.43</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -5677,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -5724,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -5780,7 +5782,7 @@
         <v>12885.43</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>87</v>
       </c>
@@ -5836,7 +5838,7 @@
         <v>12885.43</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>88</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>430.1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>88</v>
       </c>
@@ -5936,7 +5938,7 @@
         <v>430.1</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>88</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>430.1</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>89</v>
       </c>
@@ -6042,7 +6044,7 @@
         <v>307.00999999999993</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>89</v>
       </c>
@@ -6098,7 +6100,7 @@
         <v>307.00999999999993</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>89</v>
       </c>
@@ -6154,7 +6156,7 @@
         <v>307.00999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>90</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>28963.159999999916</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -6272,7 +6274,7 @@
         <v>-5321.1599999999962</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>90</v>
       </c>
@@ -6375,7 +6377,7 @@
         <v>-4366.9799999999959</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>90</v>
       </c>
@@ -6428,7 +6430,7 @@
         <v>-954.18</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>90</v>
       </c>
@@ -6484,7 +6486,7 @@
         <v>-27073.360000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>90</v>
       </c>
@@ -6540,7 +6542,7 @@
         <v>-27073.360000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>-9377.5600000000559</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>90</v>
       </c>
@@ -6658,7 +6660,7 @@
         <v>-37433.389999999985</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>14795.789999999994</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>90</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>19004.190000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>90</v>
       </c>
@@ -6835,7 +6837,7 @@
         <v>-5744.1499999999942</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>90</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>116.63999999999942</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>90</v>
       </c>
@@ -6953,7 +6955,7 @@
         <v>116.63999999999942</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>90</v>
       </c>
@@ -7012,7 +7014,7 @@
         <v>73554.94</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>90</v>
       </c>
@@ -7071,7 +7073,7 @@
         <v>2013.1899999999987</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>90</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -7171,7 +7173,7 @@
         <v>59848.609999999986</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>90</v>
       </c>
@@ -7215,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>90</v>
       </c>
@@ -7262,7 +7264,7 @@
         <v>11693.14</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>90</v>
       </c>
@@ -7318,7 +7320,7 @@
         <v>3425.7099999999991</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>90</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>-74.289999999999964</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>90</v>
       </c>
@@ -7424,7 +7426,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>90</v>
       </c>
@@ -7468,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>90</v>
       </c>
@@ -7515,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>90</v>
       </c>
@@ -7559,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>90</v>
       </c>
@@ -7603,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>90</v>
       </c>
@@ -7647,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>90</v>
       </c>
@@ -7691,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>90</v>
       </c>
@@ -7750,7 +7752,7 @@
         <v>-6362.0499999999884</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>90</v>
       </c>
@@ -7806,7 +7808,7 @@
         <v>1289.1300000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>90</v>
       </c>
@@ -7850,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>90</v>
       </c>
@@ -7897,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>90</v>
       </c>
@@ -7944,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>130.16000000000008</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>90</v>
       </c>
@@ -8056,7 +8058,7 @@
         <v>-7781.3400000000256</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>90</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>90</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>91</v>
       </c>
@@ -8194,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>91</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>91</v>
       </c>
@@ -8288,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>92</v>
       </c>
@@ -8332,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -8376,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>92</v>
       </c>
@@ -8434,17 +8436,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -8452,7 +8454,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -8460,7 +8462,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -8468,7 +8470,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -8476,7 +8478,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -8484,12 +8486,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -8497,7 +8499,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -8505,12 +8507,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -8526,7 +8528,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -8534,7 +8536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -8542,7 +8544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -8550,7 +8552,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
